--- a/data/M.xlsx
+++ b/data/M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pureMS2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E5556-0546-4674-925A-A94AAD099C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C06E8-EF6B-4067-8DBA-6E8F1FF20490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,9 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +437,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -438,19 +447,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
